--- a/tables/column_name_translations/FR_FR_column_name_translation.xlsx
+++ b/tables/column_name_translations/FR_FR_column_name_translation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63055D-5D50-4650-AE7E-7ACFCEB3819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF0A9D6-A961-42B3-A22B-D02D028D0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>31</v>
@@ -700,7 +700,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>30</v>
@@ -729,7 +729,6 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>

--- a/tables/column_name_translations/FR_FR_column_name_translation.xlsx
+++ b/tables/column_name_translations/FR_FR_column_name_translation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF0A9D6-A961-42B3-A22B-D02D028D0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63055D-5D50-4650-AE7E-7ACFCEB3819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>31</v>
@@ -700,7 +700,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>30</v>
@@ -729,6 +729,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
